--- a/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
+++ b/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Deliverables\4. ProjectSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A63CA-3332-428B-8B6A-9997362527B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFB9F4-597C-4807-BABA-4A4E0863124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="347">
   <si>
     <t>Task#</t>
   </si>
@@ -560,9 +560,6 @@
     <t xml:space="preserve">Have team members update schedule </t>
   </si>
   <si>
-    <t>Maintaining the System Schedule</t>
-  </si>
-  <si>
     <t>Create Team Github Repository</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
     <t>Add Show Image Button to Required Sections</t>
   </si>
   <si>
-    <t>Feature 1 - Adding Patient's Alerts to RIS</t>
-  </si>
-  <si>
     <t>Create Show Patient Alert Button</t>
   </si>
   <si>
@@ -941,33 +935,6 @@
     <t>Implement Feature 2</t>
   </si>
   <si>
-    <t>Implement Feature 3</t>
-  </si>
-  <si>
-    <t>Create and Organize Final Deliverables</t>
-  </si>
-  <si>
-    <t>Chase, Cade</t>
-  </si>
-  <si>
-    <t>Medical Conent Forms</t>
-  </si>
-  <si>
-    <t>Help/Tutorial Screen</t>
-  </si>
-  <si>
-    <t>Completed Project Folder</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clean Up Doc </t>
   </si>
   <si>
@@ -986,22 +953,136 @@
     <t>Clean up Radio</t>
   </si>
   <si>
-    <t>3 Hour</t>
-  </si>
-  <si>
-    <t>2 Hours</t>
-  </si>
-  <si>
-    <t>1 Hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour </t>
-  </si>
-  <si>
     <t>chase</t>
   </si>
   <si>
-    <t>Close Database Opens in the RIS</t>
+    <t>Create Database Setup Instructions</t>
+  </si>
+  <si>
+    <t>Create RIS User Manual</t>
+  </si>
+  <si>
+    <t>Create List of Requirments</t>
+  </si>
+  <si>
+    <t>Maintaining the Project Schedule</t>
+  </si>
+  <si>
+    <t>Create Diagrams</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxa</t>
+  </si>
+  <si>
+    <t>xxb</t>
+  </si>
+  <si>
+    <t>xxc</t>
+  </si>
+  <si>
+    <t>xxd</t>
+  </si>
+  <si>
+    <t>Create DatbaseERD</t>
+  </si>
+  <si>
+    <t>Create System Models</t>
+  </si>
+  <si>
+    <t>Create System Archetecture</t>
+  </si>
+  <si>
+    <t>Create System Flow Chart</t>
+  </si>
+  <si>
+    <t>Create Test Cases</t>
+  </si>
+  <si>
+    <t>Test Test Cases</t>
+  </si>
+  <si>
+    <t>Create Tools Used</t>
+  </si>
+  <si>
+    <t>Organzie Minutes and Status Reports</t>
+  </si>
+  <si>
+    <t>Austin &amp; Cade</t>
+  </si>
+  <si>
+    <t>Cade &amp; Austin</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Feature 1 </t>
+  </si>
+  <si>
+    <t>024a</t>
+  </si>
+  <si>
+    <t>Doc User Files</t>
+  </si>
+  <si>
+    <t>Tech User Files</t>
+  </si>
+  <si>
+    <t>Admin User Files</t>
+  </si>
+  <si>
+    <t>User User Files</t>
+  </si>
+  <si>
+    <t>Desk User Files</t>
+  </si>
+  <si>
+    <t>Radio User Files</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>Create System User Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Intsallation Instructions </t>
+  </si>
+  <si>
+    <t>Create lessons Learned</t>
+  </si>
+  <si>
+    <t>Cade &amp;</t>
+  </si>
+  <si>
+    <t>Create Table of Contents</t>
+  </si>
+  <si>
+    <t>Feature 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craete Button to open Medical Histoy </t>
+  </si>
+  <si>
+    <t>import table logic into medical history</t>
+  </si>
+  <si>
+    <t>Create Table Controller</t>
+  </si>
+  <si>
+    <t>Fix Appearances of Mecical history page</t>
+  </si>
+  <si>
+    <t>Add Table for Consent Forms in Database</t>
+  </si>
+  <si>
+    <t>Create Add Consent Form Page</t>
+  </si>
+  <si>
+    <t>Inset Consent Form Page into the RIS</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1635,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>681.5</c:v>
+                  <c:v>699.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,10 +2083,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,27 +3690,27 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10">
         <f>SUM(E3:E100)</f>
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2" s="13">
         <f ca="1">D3-TODAY()</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="10">
         <f>SUM(H3:H100)</f>
-        <v>731.5</v>
+        <v>698.5</v>
       </c>
       <c r="I2" s="14">
         <f>SUM(I3:I100)</f>
-        <v>681.5</v>
+        <v>699.5</v>
       </c>
       <c r="J2" s="14">
         <f>SUM(J3:J100)</f>
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -3667,7 +3748,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="C4" s="3">
         <v>44596</v>
@@ -3682,14 +3763,14 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" ref="J4:J67" si="0">H4-I4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>95</v>
@@ -3702,7 +3783,7 @@
       </c>
       <c r="N4" s="11" t="str">
         <f t="shared" ref="N4:N67" si="1">IF(A4="","",IF(I4="","Not Started",IF(H4=I4,"Complete",IF(H4&gt;I4,"In Progress"))))</f>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3728,11 +3809,11 @@
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>95</v>
@@ -3745,7 +3826,7 @@
       </c>
       <c r="N5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3771,11 +3852,11 @@
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>96</v>
@@ -3786,9 +3867,9 @@
       <c r="M6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="N6" s="11" t="b">
         <f>IF(A6="","",IF(I6="","Not Started",IF(H6=I6,"Complete",IF(H6&gt;I6,"In Progress"))))</f>
-        <v>In Progress</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3968,7 +4049,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="22">
         <v>44606</v>
@@ -5630,7 +5711,7 @@
         <v>112</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N49" s="11" t="str">
         <f t="shared" si="1"/>
@@ -5642,7 +5723,7 @@
         <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="22">
         <v>44626</v>
@@ -5667,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M50" s="19" t="s">
         <v>37</v>
@@ -5682,10 +5763,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="22">
         <v>44626</v>
@@ -5710,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M51" s="19" t="s">
         <v>37</v>
@@ -5725,10 +5806,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="22">
         <v>44628</v>
@@ -5753,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>37</v>
@@ -5768,10 +5849,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="22">
         <v>44630</v>
@@ -5796,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>144</v>
@@ -5811,10 +5892,10 @@
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" s="22">
         <v>44631</v>
@@ -5839,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N54" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5854,10 +5935,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C55" s="22">
         <v>44625</v>
@@ -5882,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N55" s="11" t="str">
         <f t="shared" si="4"/>
@@ -5897,7 +5978,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -5924,10 +6005,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="22">
         <v>44629</v>
@@ -5952,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L57" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="M57" s="19" t="s">
         <v>39</v>
@@ -5967,10 +6048,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" s="22">
         <v>44629</v>
@@ -5995,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M58" s="19" t="s">
         <v>41</v>
@@ -6010,10 +6091,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="22">
         <v>44629</v>
@@ -6038,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L59" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>40</v>
@@ -6053,10 +6134,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" s="22">
         <v>44629</v>
@@ -6081,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L60" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>37</v>
@@ -6096,10 +6177,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C61" s="22">
         <v>44631</v>
@@ -6124,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>41</v>
@@ -6139,10 +6220,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="22">
         <v>44641</v>
@@ -6167,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>144</v>
@@ -6182,10 +6263,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -6212,10 +6293,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="22">
         <v>44642</v>
@@ -6240,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>37</v>
@@ -6255,10 +6336,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C65" s="22">
         <v>44642</v>
@@ -6283,10 +6364,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>41</v>
@@ -6298,10 +6379,10 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="22">
         <v>44642</v>
@@ -6326,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>40</v>
@@ -6342,10 +6423,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="22">
         <v>44642</v>
@@ -6370,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>39</v>
@@ -6385,10 +6466,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -6415,10 +6496,10 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="22">
         <v>44644</v>
@@ -6443,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>37</v>
@@ -6458,10 +6539,10 @@
     </row>
     <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C70" s="22">
         <v>44648</v>
@@ -6486,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M70" s="19" t="s">
         <v>37</v>
@@ -6501,10 +6582,10 @@
     </row>
     <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C71" s="22">
         <v>44653</v>
@@ -6529,13 +6610,13 @@
         <v>0</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N71" s="11" t="str">
         <f t="shared" si="8"/>
@@ -6544,10 +6625,10 @@
     </row>
     <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C72" s="22">
         <v>44653</v>
@@ -6572,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L72" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M72" s="19" t="s">
         <v>41</v>
@@ -6587,10 +6668,10 @@
     </row>
     <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C73" s="22">
         <v>44654</v>
@@ -6615,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M73" s="19" t="s">
         <v>37</v>
@@ -6630,10 +6711,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" si="5"/>
@@ -6658,10 +6739,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C75" s="22">
         <v>44644</v>
@@ -6686,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>37</v>
@@ -6701,10 +6782,10 @@
     </row>
     <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C76" s="22">
         <v>44647</v>
@@ -6729,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N76" s="11" t="str">
         <f t="shared" si="8"/>
@@ -6744,10 +6825,10 @@
     </row>
     <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C77" s="22">
         <v>44648</v>
@@ -6772,13 +6853,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N77" s="11" t="str">
         <f t="shared" si="8"/>
@@ -6787,10 +6868,10 @@
     </row>
     <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C78" s="22">
         <v>44649</v>
@@ -6815,10 +6896,10 @@
         <v>0</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>37</v>
@@ -6830,10 +6911,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -6860,10 +6941,10 @@
     </row>
     <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C80" s="22">
         <v>44644</v>
@@ -6888,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>41</v>
@@ -6903,10 +6984,10 @@
     </row>
     <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C81" s="22">
         <v>44647</v>
@@ -6931,13 +7012,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N81" s="11" t="str">
         <f t="shared" si="8"/>
@@ -6946,10 +7027,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -6976,10 +7057,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C83" s="22">
         <v>44644</v>
@@ -7004,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M83" s="19" t="s">
         <v>39</v>
@@ -7019,10 +7100,10 @@
     </row>
     <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C84" s="22">
         <v>44651</v>
@@ -7047,13 +7128,13 @@
         <v>0</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N84" s="11" t="str">
         <f t="shared" si="8"/>
@@ -7062,10 +7143,10 @@
     </row>
     <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -7095,10 +7176,10 @@
     </row>
     <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C86" s="22">
         <v>44644</v>
@@ -7116,32 +7197,32 @@
         <v>2</v>
       </c>
       <c r="I86" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="L86" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="L86" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="M86" s="19" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C87" s="22">
         <v>44644</v>
@@ -7159,32 +7240,32 @@
         <v>14</v>
       </c>
       <c r="I87" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J87" s="9">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K87" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="L87" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="L87" s="19" t="s">
-        <v>271</v>
-      </c>
       <c r="M87" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N87" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C88" s="22">
         <v>44656</v>
@@ -7215,10 +7296,10 @@
     </row>
     <row r="89" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C89" s="22">
         <v>44656</v>
@@ -7243,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M89" s="19" t="s">
         <v>37</v>
@@ -7258,10 +7339,10 @@
     </row>
     <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C90" s="22">
         <v>44656</v>
@@ -7286,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>37</v>
@@ -7301,10 +7382,10 @@
     </row>
     <row r="91" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C91" s="22">
         <v>44655</v>
@@ -7329,13 +7410,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N91" s="11" t="str">
         <f t="shared" si="8"/>
@@ -7344,10 +7425,10 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C92" s="22">
         <v>44654</v>
@@ -7380,10 +7461,10 @@
     </row>
     <row r="93" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C93" s="22">
         <v>44654</v>
@@ -7408,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L93" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M93" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N93" s="11" t="str">
         <f t="shared" si="8"/>
@@ -7422,6 +7503,12 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E94" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7434,10 +7521,16 @@
       </c>
       <c r="N94" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Not Started</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E95" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7450,10 +7543,13 @@
       </c>
       <c r="N95" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Not Started</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E96" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7469,127 +7565,64 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>307</v>
-      </c>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C97" s="22">
-        <v>44659</v>
-      </c>
-      <c r="D97" s="22">
-        <v>44667</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="9">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="4">
-        <v>10</v>
-      </c>
-      <c r="I97" s="4">
-        <v>0</v>
-      </c>
       <c r="J97" s="9">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="L97" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="M97" s="19" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N97" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>In Progress</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C98" s="22">
-        <v>44659</v>
-      </c>
-      <c r="D98" s="22">
-        <v>44667</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="9">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="4">
-        <v>16</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
       <c r="J98" s="9">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="L98" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="M98" s="19" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N98" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>In Progress</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C99" s="22">
-        <v>44659</v>
-      </c>
-      <c r="D99" s="22">
-        <v>44667</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="9">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="4">
-        <v>10</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
       <c r="J99" s="9">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="L99" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="M99" s="19" t="s">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="N99" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>In Progress</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E100" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7605,7 +7638,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="9">
@@ -7623,75 +7656,271 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="L110" s="19" t="s">
-        <v>315</v>
+        <v>297</v>
+      </c>
+      <c r="H110" s="4">
+        <v>2</v>
+      </c>
+      <c r="I110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="M110" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L111" s="19" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="H111" s="4">
+        <v>3</v>
+      </c>
+      <c r="I111" s="4">
+        <v>3</v>
+      </c>
+      <c r="K111" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L112" s="19" t="s">
-        <v>317</v>
+        <v>299</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L113" s="19" t="s">
-        <v>316</v>
+        <v>300</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
+      <c r="K113" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="M113" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="L114" s="19" t="s">
-        <v>316</v>
+        <v>301</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+      <c r="K114" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="M114" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="L115" s="19" t="s">
-        <v>316</v>
+        <v>302</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1</v>
+      </c>
+      <c r="K115" s="19" t="s">
+        <v>332</v>
       </c>
       <c r="M115" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M116" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M117" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M118" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M119" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M120" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M121" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M122" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M123" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M124" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
         <v>319</v>
+      </c>
+      <c r="M125" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M126" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M127" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M130" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
+++ b/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Deliverables\4. ProjectSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CFB9F4-597C-4807-BABA-4A4E0863124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8DB26B-D8FE-482E-A2C8-BB913EC23F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="372">
   <si>
     <t>Task#</t>
   </si>
@@ -935,27 +935,6 @@
     <t>Implement Feature 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Clean Up Doc </t>
-  </si>
-  <si>
-    <t>Clean Up Tech</t>
-  </si>
-  <si>
-    <t>Clean Up Admin</t>
-  </si>
-  <si>
-    <t>Clean Up User</t>
-  </si>
-  <si>
-    <t>Clean Up Desk</t>
-  </si>
-  <si>
-    <t>Clean up Radio</t>
-  </si>
-  <si>
-    <t>chase</t>
-  </si>
-  <si>
     <t>Create Database Setup Instructions</t>
   </si>
   <si>
@@ -971,24 +950,6 @@
     <t>Create Diagrams</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>xxa</t>
-  </si>
-  <si>
-    <t>xxb</t>
-  </si>
-  <si>
-    <t>xxc</t>
-  </si>
-  <si>
-    <t>xxd</t>
-  </si>
-  <si>
-    <t>Create DatbaseERD</t>
-  </si>
-  <si>
     <t>Create System Models</t>
   </si>
   <si>
@@ -1013,9 +974,6 @@
     <t>Austin &amp; Cade</t>
   </si>
   <si>
-    <t>Cade &amp; Austin</t>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
@@ -1043,9 +1001,6 @@
     <t>Radio User Files</t>
   </si>
   <si>
-    <t>3333</t>
-  </si>
-  <si>
     <t>Create System User Manual</t>
   </si>
   <si>
@@ -1061,28 +1016,148 @@
     <t>Create Table of Contents</t>
   </si>
   <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craete Button to open Medical Histoy </t>
-  </si>
-  <si>
-    <t>import table logic into medical history</t>
-  </si>
-  <si>
     <t>Create Table Controller</t>
   </si>
   <si>
-    <t>Fix Appearances of Mecical history page</t>
-  </si>
-  <si>
     <t>Add Table for Consent Forms in Database</t>
   </si>
   <si>
     <t>Create Add Consent Form Page</t>
   </si>
   <si>
-    <t>Inset Consent Form Page into the RIS</t>
+    <t>024b</t>
+  </si>
+  <si>
+    <t>024c</t>
+  </si>
+  <si>
+    <t>Insert Consent Form Page into the RIS</t>
+  </si>
+  <si>
+    <t>024d</t>
+  </si>
+  <si>
+    <t>Test Feature 2 Implementation</t>
+  </si>
+  <si>
+    <t>Visual Consent Form Page</t>
+  </si>
+  <si>
+    <t>New Database Table</t>
+  </si>
+  <si>
+    <t>RIS with Feature 2 Implemented</t>
+  </si>
+  <si>
+    <t>Completion of Feature 2 Implementation</t>
+  </si>
+  <si>
+    <t>Create DatabaseERD</t>
+  </si>
+  <si>
+    <t>Clean Up Tech User Files</t>
+  </si>
+  <si>
+    <t>Clean Up Doc User Files</t>
+  </si>
+  <si>
+    <t>Clean Up Admin User Files</t>
+  </si>
+  <si>
+    <t>Clean Up User User Files</t>
+  </si>
+  <si>
+    <t>Clean Up Desk User Files</t>
+  </si>
+  <si>
+    <t>Clean Up Radio User Files</t>
+  </si>
+  <si>
+    <t>025a</t>
+  </si>
+  <si>
+    <t>025b</t>
+  </si>
+  <si>
+    <t>025c</t>
+  </si>
+  <si>
+    <t>025d</t>
+  </si>
+  <si>
+    <t>025e</t>
+  </si>
+  <si>
+    <t>025f</t>
+  </si>
+  <si>
+    <t>Add Functionality to the Admin User</t>
+  </si>
+  <si>
+    <t>User Files without Errors</t>
+  </si>
+  <si>
+    <t>Doc Files without Errors</t>
+  </si>
+  <si>
+    <t>Tech Files without Errors</t>
+  </si>
+  <si>
+    <t>Admin Files without Errors</t>
+  </si>
+  <si>
+    <t>Desk Files without Errors</t>
+  </si>
+  <si>
+    <t>Radio Files without Errors</t>
+  </si>
+  <si>
+    <t>Implement Feature 3</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Local Database</t>
+  </si>
+  <si>
+    <t>RIS System with Feature 2</t>
+  </si>
+  <si>
+    <t>Create Button to Open Medical History</t>
+  </si>
+  <si>
+    <t>Import Table Logic into Medical History</t>
+  </si>
+  <si>
+    <t>Fix Appearance of Medical History Page</t>
+  </si>
+  <si>
+    <t>026a</t>
+  </si>
+  <si>
+    <t>026b</t>
+  </si>
+  <si>
+    <t>026c</t>
+  </si>
+  <si>
+    <t>026d</t>
+  </si>
+  <si>
+    <t>026e</t>
+  </si>
+  <si>
+    <t>Implement Feature 3 into the RIS</t>
+  </si>
+  <si>
+    <t>026f</t>
+  </si>
+  <si>
+    <t>Test RIS with Feature 3 Implemented</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1710,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>699.5</c:v>
+                  <c:v>710.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,7 +3765,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10">
         <f>SUM(E3:E100)</f>
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
@@ -3702,15 +3777,15 @@
       </c>
       <c r="H2" s="10">
         <f>SUM(H3:H100)</f>
-        <v>698.5</v>
+        <v>710.5</v>
       </c>
       <c r="I2" s="14">
         <f>SUM(I3:I100)</f>
-        <v>699.5</v>
+        <v>710.5</v>
       </c>
       <c r="J2" s="14">
         <f>SUM(J3:J100)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -3748,7 +3823,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3">
         <v>44596</v>
@@ -3852,11 +3927,11 @@
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>96</v>
@@ -3867,9 +3942,9 @@
       <c r="M6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="11" t="b">
+      <c r="N6" s="11" t="str">
         <f>IF(A6="","",IF(I6="","Not Started",IF(H6=I6,"Complete",IF(H6&gt;I6,"In Progress"))))</f>
-        <v>0</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5980,6 +6055,9 @@
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="9">
@@ -6469,12 +6547,12 @@
         <v>235</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="9">
-        <f t="shared" ref="E68:E101" si="5">D68-C68</f>
+        <f t="shared" ref="E68:E108" si="5">D68-C68</f>
         <v>0</v>
       </c>
       <c r="F68" s="9"/>
@@ -6486,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" ref="J68:J101" si="6">H68-I68</f>
+        <f t="shared" ref="J68:J105" si="6">H68-I68</f>
         <v>0</v>
       </c>
       <c r="N68" s="11" t="str">
@@ -6533,7 +6611,7 @@
         <v>37</v>
       </c>
       <c r="N69" s="11" t="str">
-        <f t="shared" ref="N69:N101" si="8">IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
+        <f t="shared" ref="N69:N105" si="8">IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
         <v>Complete</v>
       </c>
     </row>
@@ -7504,423 +7582,902 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
       <c r="J94" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N94" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>345</v>
+      <c r="C95" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D95" s="22">
+        <v>44660</v>
       </c>
       <c r="E95" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
       <c r="J95" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K95" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="L95" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="M95" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N95" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>Not Started</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="B96" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
+      </c>
+      <c r="C96" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D96" s="22">
+        <v>44660</v>
       </c>
       <c r="E96" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
       <c r="J96" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K96" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="L96" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="M96" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N96" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="B97" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+        <v>329</v>
+      </c>
+      <c r="C97" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D97" s="22">
+        <v>44660</v>
+      </c>
       <c r="E97" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
+      <c r="H97" s="4">
+        <v>5</v>
+      </c>
+      <c r="I97" s="4">
+        <v>5</v>
+      </c>
       <c r="J97" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K97" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="L97" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="M97" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N97" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D98" s="22">
+        <v>44660</v>
+      </c>
       <c r="E98" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1</v>
+      </c>
       <c r="J98" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K98" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="M98" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="N98" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D99" s="22">
+        <v>44660</v>
+      </c>
       <c r="E99" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
+      <c r="H99" s="4">
+        <v>2</v>
+      </c>
+      <c r="I99" s="4">
+        <v>2</v>
+      </c>
       <c r="J99" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K99" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="L99" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="M99" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N99" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D100" s="22">
+        <v>44660</v>
+      </c>
       <c r="E100" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
+      <c r="H100" s="4">
+        <v>3</v>
+      </c>
+      <c r="I100" s="4">
+        <v>3</v>
+      </c>
       <c r="J100" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K100" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="L100" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="M100" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="N100" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C101" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D101" s="22">
+        <v>44660</v>
+      </c>
       <c r="E101" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1</v>
+      </c>
       <c r="J101" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K101" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="L101" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="M101" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="N101" s="11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D102" s="22">
+        <v>44660</v>
+      </c>
+      <c r="E102" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H102" s="4">
+        <v>1</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="L102" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="M102" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N102" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D103" s="22">
+        <v>44660</v>
+      </c>
+      <c r="E103" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1</v>
+      </c>
+      <c r="J103" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="L103" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="M103" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D104" s="22">
+        <v>44660</v>
+      </c>
+      <c r="E104" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="L104" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="M104" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D105" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E105" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N105" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C106" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D106" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E106" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1</v>
+      </c>
+      <c r="J106" s="9">
+        <v>0</v>
+      </c>
+      <c r="M106" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C107" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D107" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E107" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H107" s="4">
+        <v>6</v>
+      </c>
+      <c r="I107" s="4">
+        <v>6</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D108" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E108" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2</v>
+      </c>
+      <c r="I108" s="4">
+        <v>2</v>
+      </c>
+      <c r="J108" s="9">
+        <v>0</v>
+      </c>
+      <c r="M108" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D109" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E109" s="9">
+        <v>2</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2</v>
+      </c>
+      <c r="I109" s="4">
+        <v>2</v>
+      </c>
+      <c r="J109" s="9">
+        <v>0</v>
+      </c>
+      <c r="M109" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="B110" s="2" t="s">
-        <v>297</v>
+        <v>368</v>
+      </c>
+      <c r="C110" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D110" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E110" s="9">
+        <v>2</v>
       </c>
       <c r="H110" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" s="4">
-        <v>2</v>
-      </c>
-      <c r="K110" s="19" t="s">
-        <v>327</v>
+        <v>1</v>
+      </c>
+      <c r="J110" s="9">
+        <v>0</v>
       </c>
       <c r="M110" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N110" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="B111" s="2" t="s">
-        <v>298</v>
+        <v>370</v>
+      </c>
+      <c r="C111" s="22">
+        <v>44664</v>
+      </c>
+      <c r="D111" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E111" s="9">
+        <v>2</v>
       </c>
       <c r="H111" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111" s="4">
-        <v>3</v>
-      </c>
-      <c r="K111" s="19" t="s">
-        <v>328</v>
+        <v>1</v>
+      </c>
+      <c r="J111" s="9">
+        <v>0</v>
       </c>
       <c r="M111" s="19" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N111" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H112" s="4">
-        <v>1</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1</v>
-      </c>
-      <c r="K112" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="M112" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1</v>
-      </c>
-      <c r="K113" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="M113" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H114" s="4">
-        <v>1</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1</v>
-      </c>
-      <c r="K114" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="M114" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H115" s="4">
-        <v>1</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1</v>
-      </c>
-      <c r="K115" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="M115" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+      <c r="C117" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D117" s="22">
+        <v>44666</v>
+      </c>
+      <c r="H117" s="4">
+        <v>3</v>
+      </c>
+      <c r="I117" s="4">
+        <v>3</v>
+      </c>
+      <c r="M117" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D118" s="22">
+        <v>44666</v>
+      </c>
+      <c r="H118" s="4">
+        <v>3</v>
+      </c>
+      <c r="I118" s="4">
+        <v>3</v>
+      </c>
+      <c r="M118" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="M116" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="M117" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M118" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>308</v>
+      <c r="C119" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D119" s="22">
+        <v>44666</v>
+      </c>
+      <c r="H119" s="4">
+        <v>3</v>
+      </c>
+      <c r="I119" s="4">
+        <v>3</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>310</v>
-      </c>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="C120" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D120" s="22">
+        <v>44666</v>
+      </c>
+      <c r="H120" s="4">
+        <v>3</v>
+      </c>
+      <c r="I120" s="4">
+        <v>3</v>
+      </c>
+      <c r="J120" s="9">
+        <v>0</v>
       </c>
       <c r="M120" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>311</v>
-      </c>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
+      </c>
+      <c r="C121" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D121" s="22">
+        <v>44665</v>
+      </c>
+      <c r="H121" s="4">
+        <v>1</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1</v>
+      </c>
+      <c r="J121" s="9">
+        <v>0</v>
       </c>
       <c r="M121" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>312</v>
-      </c>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
+      </c>
+      <c r="C122" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D122" s="22">
+        <v>44665</v>
+      </c>
+      <c r="H122" s="4">
+        <v>3</v>
+      </c>
+      <c r="I122" s="4">
+        <v>3</v>
+      </c>
+      <c r="J122" s="9">
+        <v>0</v>
       </c>
       <c r="M122" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="M123" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M124" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M125" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="M126" s="19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M127" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
+      </c>
+      <c r="M129" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="M130" s="19" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
+      </c>
+      <c r="M131" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
+++ b/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Deliverables\4. ProjectSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8DB26B-D8FE-482E-A2C8-BB913EC23F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22A6BE-05A2-4284-B8BF-BFA8A33CD999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="9">
-        <f t="shared" ref="J68:J105" si="6">H68-I68</f>
+        <f t="shared" ref="J68:J104" si="6">H68-I68</f>
         <v>0</v>
       </c>
       <c r="N68" s="11" t="str">

--- a/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
+++ b/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Deliverables\4. ProjectSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22A6BE-05A2-4284-B8BF-BFA8A33CD999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83365879-381E-4EC5-942E-414B7F28F1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="393">
   <si>
     <t>Task#</t>
   </si>
@@ -968,12 +968,6 @@
     <t>Create Tools Used</t>
   </si>
   <si>
-    <t>Organzie Minutes and Status Reports</t>
-  </si>
-  <si>
-    <t>Austin &amp; Cade</t>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
@@ -1001,18 +995,6 @@
     <t>Radio User Files</t>
   </si>
   <si>
-    <t>Create System User Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Intsallation Instructions </t>
-  </si>
-  <si>
-    <t>Create lessons Learned</t>
-  </si>
-  <si>
-    <t>Cade &amp;</t>
-  </si>
-  <si>
     <t>Create Table of Contents</t>
   </si>
   <si>
@@ -1158,6 +1140,87 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Organize Minutes and Status Reporst</t>
+  </si>
+  <si>
+    <t>Test Installation Instructions</t>
+  </si>
+  <si>
+    <t>Create Lessons Learned</t>
+  </si>
+  <si>
+    <t>Austin, Cade</t>
+  </si>
+  <si>
+    <t>Cade, Austin</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>030a</t>
+  </si>
+  <si>
+    <t>030b</t>
+  </si>
+  <si>
+    <t>030c</t>
+  </si>
+  <si>
+    <t>030d</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>Create PowerPoint Presenation</t>
+  </si>
+  <si>
+    <t>Rows after this don’t appear to be working</t>
+  </si>
+  <si>
+    <t>Project Deliverables</t>
+  </si>
+  <si>
+    <t>Presentation of Project</t>
+  </si>
+  <si>
+    <t>Contents of Project</t>
+  </si>
+  <si>
+    <t>Experiances and Status Reports</t>
   </si>
 </sst>
 </file>
@@ -3689,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L126" sqref="L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,7 +6119,7 @@
         <v>199</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -6547,7 +6610,7 @@
         <v>235</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -7582,7 +7645,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>296</v>
@@ -7612,10 +7675,10 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C95" s="22">
         <v>44657</v>
@@ -7643,7 +7706,7 @@
         <v>270</v>
       </c>
       <c r="L95" s="19" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M95" s="19" t="s">
         <v>41</v>
@@ -7655,10 +7718,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C96" s="22">
         <v>44657</v>
@@ -7683,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L96" s="19" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>41</v>
@@ -7696,12 +7759,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C97" s="22">
         <v>44657</v>
@@ -7729,7 +7792,7 @@
         <v>270</v>
       </c>
       <c r="L97" s="19" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M97" s="19" t="s">
         <v>41</v>
@@ -7739,12 +7802,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C98" s="22">
         <v>44657</v>
@@ -7769,10 +7832,10 @@
         <v>0</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L98" s="19" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M98" s="19" t="s">
         <v>41</v>
@@ -7782,12 +7845,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C99" s="22">
         <v>44657</v>
@@ -7812,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M99" s="19" t="s">
         <v>37</v>
@@ -7825,12 +7888,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C100" s="22">
         <v>44657</v>
@@ -7855,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M100" s="19" t="s">
         <v>229</v>
@@ -7868,12 +7931,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C101" s="22">
         <v>44657</v>
@@ -7898,10 +7961,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M101" s="19" t="s">
         <v>37</v>
@@ -7911,12 +7974,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C102" s="22">
         <v>44657</v>
@@ -7939,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M102" s="19" t="s">
         <v>37</v>
@@ -7952,12 +8015,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C103" s="22">
         <v>44657</v>
@@ -7980,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M103" s="19" t="s">
         <v>37</v>
@@ -7993,12 +8056,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C104" s="22">
         <v>44657</v>
@@ -8021,10 +8084,10 @@
         <v>0</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M104" s="19" t="s">
         <v>37</v>
@@ -8034,22 +8097,18 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C105" s="22">
-        <v>44664</v>
-      </c>
-      <c r="D105" s="22">
-        <v>44666</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="9">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105" s="4">
         <v>0</v>
@@ -8060,20 +8119,16 @@
       <c r="J105" s="9">
         <v>0</v>
       </c>
-      <c r="M105" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N105" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>Complete</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C106" s="22">
         <v>44664</v>
@@ -8098,15 +8153,15 @@
         <v>39</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C107" s="22">
         <v>44664</v>
@@ -8131,15 +8186,15 @@
         <v>288</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C108" s="22">
         <v>44664</v>
@@ -8164,15 +8219,15 @@
         <v>39</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C109" s="22">
         <v>44664</v>
@@ -8196,15 +8251,15 @@
         <v>39</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C110" s="22">
         <v>44664</v>
@@ -8228,15 +8283,15 @@
         <v>37</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C111" s="22">
         <v>44664</v>
@@ -8260,43 +8315,129 @@
         <v>229</v>
       </c>
       <c r="N111" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C112" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D112" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E112" s="9">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1</v>
+      </c>
+      <c r="J112" s="9">
+        <v>0</v>
+      </c>
+      <c r="M112" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="B113" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C113" s="22">
+        <v>44666</v>
+      </c>
+      <c r="D113" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E113" s="9">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2</v>
+      </c>
+      <c r="I113" s="4">
+        <v>2</v>
+      </c>
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="M113" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B115" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C115" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D115" s="22">
+        <v>44666</v>
+      </c>
+      <c r="E115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115" s="9">
+        <v>0</v>
+      </c>
+      <c r="M115" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="B116" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
+      <c r="C116" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D116" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E116" s="9">
+        <v>1</v>
+      </c>
       <c r="H116" s="4">
         <v>0</v>
       </c>
       <c r="I116" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J116" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="B117" s="2" t="s">
         <v>302</v>
       </c>
@@ -8306,19 +8447,28 @@
       <c r="D117" s="22">
         <v>44666</v>
       </c>
+      <c r="E117" s="9">
+        <v>1</v>
+      </c>
       <c r="H117" s="4">
         <v>3</v>
       </c>
       <c r="I117" s="4">
         <v>3</v>
       </c>
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
       <c r="M117" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="B118" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C118" s="22">
         <v>44665</v>
@@ -8326,17 +8476,26 @@
       <c r="D118" s="22">
         <v>44666</v>
       </c>
+      <c r="E118" s="9">
+        <v>1</v>
+      </c>
       <c r="H118" s="4">
         <v>3</v>
       </c>
       <c r="I118" s="4">
         <v>3</v>
       </c>
+      <c r="J118" s="9">
+        <v>0</v>
+      </c>
       <c r="M118" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="B119" s="2" t="s">
         <v>304</v>
       </c>
@@ -8346,6 +8505,9 @@
       <c r="D119" s="22">
         <v>44666</v>
       </c>
+      <c r="E119" s="9">
+        <v>1</v>
+      </c>
       <c r="H119" s="4">
         <v>3</v>
       </c>
@@ -8359,7 +8521,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="B120" s="2" t="s">
         <v>303</v>
       </c>
@@ -8369,6 +8534,9 @@
       <c r="D120" s="22">
         <v>44666</v>
       </c>
+      <c r="E120" s="9">
+        <v>1</v>
+      </c>
       <c r="H120" s="4">
         <v>3</v>
       </c>
@@ -8382,7 +8550,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="B121" s="2" t="s">
         <v>305</v>
       </c>
@@ -8392,6 +8563,9 @@
       <c r="D121" s="22">
         <v>44665</v>
       </c>
+      <c r="E121" s="9">
+        <v>0</v>
+      </c>
       <c r="H121" s="4">
         <v>1</v>
       </c>
@@ -8405,7 +8579,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B122" s="2" t="s">
         <v>306</v>
       </c>
@@ -8415,6 +8592,9 @@
       <c r="D122" s="22">
         <v>44665</v>
       </c>
+      <c r="E122" s="9">
+        <v>0</v>
+      </c>
       <c r="H122" s="4">
         <v>3</v>
       </c>
@@ -8428,56 +8608,190 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="22">
+        <v>44667</v>
+      </c>
+      <c r="D123" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E123" s="9">
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>1</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1</v>
+      </c>
+      <c r="J123" s="9">
+        <v>0</v>
+      </c>
+      <c r="M123" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="22">
+        <v>44667</v>
+      </c>
+      <c r="D124" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E124" s="9">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>1</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1</v>
+      </c>
+      <c r="J124" s="9">
+        <v>0</v>
+      </c>
+      <c r="M124" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="22">
+        <v>44666</v>
+      </c>
+      <c r="D125" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125" s="4">
+        <v>3</v>
+      </c>
+      <c r="I125" s="4">
+        <v>3</v>
+      </c>
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="B126" s="2" t="s">
-        <v>307</v>
+        <v>368</v>
+      </c>
+      <c r="C126" s="22">
+        <v>44666</v>
+      </c>
+      <c r="D126" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4">
+        <v>1</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
+      <c r="J126" s="9">
+        <v>0</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>392</v>
       </c>
       <c r="M126" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="B127" s="2" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="C127" s="22">
+        <v>44667</v>
+      </c>
+      <c r="D127" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1</v>
+      </c>
+      <c r="J127" s="9">
+        <v>0</v>
+      </c>
+      <c r="K127" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="L127" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="M127" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="M129" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="M130" s="19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="M131" s="19" t="s">
-        <v>322</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="22">
+        <v>44667</v>
+      </c>
+      <c r="D128" s="22">
+        <v>44667</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1</v>
+      </c>
+      <c r="J128" s="9">
+        <v>0</v>
+      </c>
+      <c r="K128" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="L128" s="19" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
+++ b/Deliverables/4. ProjectSchedule/Schedule-Team4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Deliverables\4. ProjectSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83365879-381E-4EC5-942E-414B7F28F1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B685A73B-6CEC-41D8-A105-EE5CF0DCBF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="400">
   <si>
     <t>Task#</t>
   </si>
@@ -1221,6 +1221,27 @@
   </si>
   <si>
     <t>Experiances and Status Reports</t>
+  </si>
+  <si>
+    <t>Feature 3 Requirments</t>
+  </si>
+  <si>
+    <t>Feature 3</t>
+  </si>
+  <si>
+    <t>Implemented Feature 3</t>
+  </si>
+  <si>
+    <t>New Radiology System</t>
+  </si>
+  <si>
+    <t>Visual Button</t>
+  </si>
+  <si>
+    <t>Working Table for Medical History</t>
+  </si>
+  <si>
+    <t>Table Controller Duplicated</t>
   </si>
 </sst>
 </file>
@@ -3754,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L126" sqref="L126"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K114" sqref="K114:L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,8 +3860,8 @@
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <f>SUM(H3:H100)</f>
-        <v>710.5</v>
+        <f>SUM(H3:H1000)</f>
+        <v>755.5</v>
       </c>
       <c r="I2" s="14">
         <f>SUM(I3:I100)</f>
@@ -6674,7 +6695,7 @@
         <v>37</v>
       </c>
       <c r="N69" s="11" t="str">
-        <f t="shared" ref="N69:N105" si="8">IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
+        <f t="shared" ref="N69:N104" si="8">IF(A69="","",IF(I69="","Not Started",IF(H69=I69,"Complete",IF(H69&gt;I69,"In Progress"))))</f>
         <v>Complete</v>
       </c>
     </row>
@@ -8149,6 +8170,12 @@
       <c r="J106" s="9">
         <v>0</v>
       </c>
+      <c r="K106" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L106" s="19" t="s">
+        <v>397</v>
+      </c>
       <c r="M106" s="19" t="s">
         <v>39</v>
       </c>
@@ -8156,7 +8183,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>358</v>
       </c>
@@ -8182,6 +8209,12 @@
       <c r="J107" s="9">
         <v>0</v>
       </c>
+      <c r="K107" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L107" s="19" t="s">
+        <v>398</v>
+      </c>
       <c r="M107" s="19" t="s">
         <v>288</v>
       </c>
@@ -8215,6 +8248,12 @@
       <c r="J108" s="9">
         <v>0</v>
       </c>
+      <c r="K108" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="L108" s="19" t="s">
+        <v>399</v>
+      </c>
       <c r="M108" s="19" t="s">
         <v>39</v>
       </c>
@@ -8247,6 +8286,9 @@
       <c r="J109" s="9">
         <v>0</v>
       </c>
+      <c r="K109" s="19" t="s">
+        <v>393</v>
+      </c>
       <c r="M109" s="19" t="s">
         <v>39</v>
       </c>
@@ -8279,6 +8321,9 @@
       <c r="J110" s="9">
         <v>0</v>
       </c>
+      <c r="K110" s="19" t="s">
+        <v>394</v>
+      </c>
       <c r="M110" s="19" t="s">
         <v>37</v>
       </c>
@@ -8311,6 +8356,12 @@
       <c r="J111" s="9">
         <v>0</v>
       </c>
+      <c r="K111" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="L111" s="19" t="s">
+        <v>396</v>
+      </c>
       <c r="M111" s="19" t="s">
         <v>229</v>
       </c>
@@ -8346,8 +8397,11 @@
       <c r="M112" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>372</v>
       </c>
@@ -8375,11 +8429,17 @@
       <c r="M113" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>373</v>
       </c>
@@ -8407,8 +8467,11 @@
       <c r="M115" s="19" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>374</v>
       </c>
@@ -8433,8 +8496,11 @@
       <c r="J116" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>375</v>
       </c>
@@ -8462,8 +8528,11 @@
       <c r="M117" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>376</v>
       </c>
@@ -8491,8 +8560,11 @@
       <c r="M118" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>377</v>
       </c>
@@ -8520,8 +8592,11 @@
       <c r="M119" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>378</v>
       </c>
@@ -8549,8 +8624,11 @@
       <c r="M120" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>379</v>
       </c>
@@ -8578,8 +8656,11 @@
       <c r="M121" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>380</v>
       </c>
@@ -8607,8 +8688,11 @@
       <c r="M122" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>381</v>
       </c>
@@ -8636,8 +8720,11 @@
       <c r="M123" s="19" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>382</v>
       </c>
@@ -8665,8 +8752,11 @@
       <c r="M124" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>383</v>
       </c>
@@ -8694,8 +8784,11 @@
       <c r="M125" s="19" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>384</v>
       </c>
@@ -8726,8 +8819,11 @@
       <c r="M126" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -8761,8 +8857,11 @@
       <c r="M127" s="19" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>386</v>
       </c>
@@ -8792,6 +8891,12 @@
       </c>
       <c r="L128" s="19" t="s">
         <v>390</v>
+      </c>
+      <c r="M128" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
